--- a/Financials/Quarterly/AZSEY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/AZSEY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7796DCE-F513-4365-A9BA-987A085C0853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZSEY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AZSEY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57035400</v>
+        <v>54224700</v>
       </c>
       <c r="E8" s="3">
-        <v>30662300</v>
+        <v>29340000</v>
       </c>
       <c r="F8" s="3">
-        <v>59799800</v>
+        <v>54517500</v>
       </c>
       <c r="G8" s="3">
-        <v>29913400</v>
+        <v>29308600</v>
       </c>
       <c r="H8" s="3">
-        <v>61148500</v>
+        <v>57159800</v>
       </c>
       <c r="I8" s="3">
+        <v>28592800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>58448900</v>
+      </c>
+      <c r="K8" s="3">
         <v>31787900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>57479100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>31461600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +816,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +851,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +870,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +901,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,66 +936,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1292400</v>
+        <v>2747800</v>
       </c>
       <c r="E14" s="3">
-        <v>593900</v>
+        <v>841500</v>
       </c>
       <c r="F14" s="3">
-        <v>1236000</v>
+        <v>1235300</v>
       </c>
       <c r="G14" s="3">
-        <v>294600</v>
+        <v>567700</v>
       </c>
       <c r="H14" s="3">
-        <v>685500</v>
+        <v>1181500</v>
       </c>
       <c r="I14" s="3">
+        <v>281600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>655200</v>
+      </c>
+      <c r="K14" s="3">
         <v>262900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1433200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>277000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>353300</v>
+        <v>83000</v>
       </c>
       <c r="E15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>337700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>84100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>48100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>204200</v>
+      </c>
+      <c r="M15" s="3">
         <v>45800</v>
       </c>
-      <c r="F15" s="3">
-        <v>88000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>92700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>48100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>204200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1022,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50919900</v>
+        <v>48057100</v>
       </c>
       <c r="E17" s="3">
-        <v>27588100</v>
+        <v>26314000</v>
       </c>
       <c r="F17" s="3">
-        <v>52172300</v>
+        <v>48671900</v>
       </c>
       <c r="G17" s="3">
-        <v>27125600</v>
+        <v>26370100</v>
       </c>
       <c r="H17" s="3">
-        <v>51381200</v>
+        <v>49869100</v>
       </c>
       <c r="I17" s="3">
+        <v>25928100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>49112900</v>
+      </c>
+      <c r="K17" s="3">
         <v>28547100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>52118300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28106900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6115600</v>
+        <v>6167600</v>
       </c>
       <c r="E18" s="3">
-        <v>3074200</v>
+        <v>3026000</v>
       </c>
       <c r="F18" s="3">
-        <v>7627400</v>
+        <v>5845600</v>
       </c>
       <c r="G18" s="3">
-        <v>2787800</v>
+        <v>2938500</v>
       </c>
       <c r="H18" s="3">
-        <v>9767300</v>
+        <v>7290700</v>
       </c>
       <c r="I18" s="3">
+        <v>2664700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9336100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3240900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5360800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3354700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1107,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>786500</v>
+        <v>64000</v>
       </c>
       <c r="E20" s="3">
-        <v>315800</v>
+        <v>194100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1619900</v>
+        <v>751700</v>
       </c>
       <c r="G20" s="3">
-        <v>197200</v>
+        <v>301800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2514300</v>
+        <v>-1548300</v>
       </c>
       <c r="I20" s="3">
+        <v>188500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2403300</v>
+      </c>
+      <c r="K20" s="3">
         <v>192500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2530700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7735400</v>
+        <v>7214400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>6977100</v>
+        <v>7393900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>8095800</v>
+        <v>6669100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>7738400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>8740200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>603300</v>
+        <v>584600</v>
       </c>
       <c r="E22" s="3">
-        <v>241800</v>
+        <v>236700</v>
       </c>
       <c r="F22" s="3">
-        <v>665600</v>
+        <v>576700</v>
       </c>
       <c r="G22" s="3">
-        <v>244200</v>
+        <v>231100</v>
       </c>
       <c r="H22" s="3">
-        <v>683200</v>
+        <v>636200</v>
       </c>
       <c r="I22" s="3">
+        <v>233400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K22" s="3">
         <v>250000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1221900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6298700</v>
+        <v>5647000</v>
       </c>
       <c r="E23" s="3">
-        <v>3148200</v>
+        <v>2983400</v>
       </c>
       <c r="F23" s="3">
-        <v>5342000</v>
+        <v>6020600</v>
       </c>
       <c r="G23" s="3">
-        <v>2740800</v>
+        <v>3009200</v>
       </c>
       <c r="H23" s="3">
-        <v>6569800</v>
+        <v>5106200</v>
       </c>
       <c r="I23" s="3">
+        <v>2619800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6279800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3183400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6669600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3352400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1572900</v>
+        <v>1521400</v>
       </c>
       <c r="E24" s="3">
-        <v>764200</v>
+        <v>829200</v>
       </c>
       <c r="F24" s="3">
-        <v>1591700</v>
+        <v>1503500</v>
       </c>
       <c r="G24" s="3">
-        <v>780600</v>
+        <v>730400</v>
       </c>
       <c r="H24" s="3">
-        <v>1860500</v>
+        <v>1521400</v>
       </c>
       <c r="I24" s="3">
+        <v>746100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1778400</v>
+      </c>
+      <c r="K24" s="3">
         <v>929700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2088200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1021200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1313,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4725800</v>
+        <v>4125600</v>
       </c>
       <c r="E26" s="3">
-        <v>2384000</v>
+        <v>2154200</v>
       </c>
       <c r="F26" s="3">
-        <v>3750300</v>
+        <v>4517100</v>
       </c>
       <c r="G26" s="3">
-        <v>1960300</v>
+        <v>2278800</v>
       </c>
       <c r="H26" s="3">
-        <v>4709300</v>
+        <v>3584800</v>
       </c>
       <c r="I26" s="3">
+        <v>1873700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4501400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2253700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4581400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2331200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4495700</v>
+        <v>4075100</v>
       </c>
       <c r="E27" s="3">
-        <v>2276000</v>
+        <v>2172200</v>
       </c>
       <c r="F27" s="3">
-        <v>3513200</v>
+        <v>4297200</v>
       </c>
       <c r="G27" s="3">
-        <v>1838200</v>
+        <v>2175500</v>
       </c>
       <c r="H27" s="3">
-        <v>4472200</v>
+        <v>3358100</v>
       </c>
       <c r="I27" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4274800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2131600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4380700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2225500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1418,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1453,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1488,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1523,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-786500</v>
+        <v>-64000</v>
       </c>
       <c r="E32" s="3">
-        <v>-315800</v>
+        <v>-194100</v>
       </c>
       <c r="F32" s="3">
-        <v>1619900</v>
+        <v>-751700</v>
       </c>
       <c r="G32" s="3">
-        <v>-197200</v>
+        <v>-301800</v>
       </c>
       <c r="H32" s="3">
-        <v>2514300</v>
+        <v>1548300</v>
       </c>
       <c r="I32" s="3">
+        <v>-188500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2403300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-192500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2530700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-252400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4495700</v>
+        <v>4075100</v>
       </c>
       <c r="E33" s="3">
-        <v>2276000</v>
+        <v>2172200</v>
       </c>
       <c r="F33" s="3">
-        <v>3513200</v>
+        <v>4297200</v>
       </c>
       <c r="G33" s="3">
-        <v>1838200</v>
+        <v>2175500</v>
       </c>
       <c r="H33" s="3">
-        <v>4472200</v>
+        <v>3358100</v>
       </c>
       <c r="I33" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4274800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2131600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4380700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2225500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1628,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4495700</v>
+        <v>4075100</v>
       </c>
       <c r="E35" s="3">
-        <v>2276000</v>
+        <v>2172200</v>
       </c>
       <c r="F35" s="3">
-        <v>3513200</v>
+        <v>4297200</v>
       </c>
       <c r="G35" s="3">
-        <v>1838200</v>
+        <v>2175500</v>
       </c>
       <c r="H35" s="3">
-        <v>4472200</v>
+        <v>3358100</v>
       </c>
       <c r="I35" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4274800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2131600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4380700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2225500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1722,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,37 +1737,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24586600</v>
+        <v>22820200</v>
       </c>
       <c r="E41" s="3">
-        <v>19560400</v>
+        <v>21203400</v>
       </c>
       <c r="F41" s="3">
-        <v>23726200</v>
+        <v>23501200</v>
       </c>
       <c r="G41" s="3">
-        <v>21024100</v>
+        <v>18696800</v>
       </c>
       <c r="H41" s="3">
-        <v>24057200</v>
+        <v>22678800</v>
       </c>
       <c r="I41" s="3">
+        <v>20096000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22995200</v>
+      </c>
+      <c r="K41" s="3">
         <v>18480500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21318700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18108400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,37 +1803,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13103200</v>
+        <v>12178100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>12166500</v>
+        <v>12524800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="3">
-        <v>12476400</v>
+        <v>11629400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="3">
+        <v>11925600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>11920000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1873,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1908,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1943,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>767339600</v>
+        <v>737600700</v>
       </c>
       <c r="E47" s="3">
-        <v>770501800</v>
+        <v>747285700</v>
       </c>
       <c r="F47" s="3">
-        <v>763343900</v>
+        <v>733463900</v>
       </c>
       <c r="G47" s="3">
-        <v>766010800</v>
+        <v>736486600</v>
       </c>
       <c r="H47" s="3">
-        <v>751425000</v>
+        <v>729644700</v>
       </c>
       <c r="I47" s="3">
+        <v>732193800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>718252000</v>
+      </c>
+      <c r="K47" s="3">
         <v>768477000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1515661000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>793090600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24850700</v>
+        <v>24837500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>24727500</v>
+        <v>23753700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>24531500</v>
+        <v>23635800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>23448500</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>24966900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15746700</v>
+        <v>15446400</v>
       </c>
       <c r="E49" s="3">
-        <v>15493100</v>
+        <v>15041400</v>
       </c>
       <c r="F49" s="3">
-        <v>15567100</v>
+        <v>15051500</v>
       </c>
       <c r="G49" s="3">
-        <v>15635100</v>
+        <v>14809100</v>
       </c>
       <c r="H49" s="3">
-        <v>15673900</v>
+        <v>14879800</v>
       </c>
       <c r="I49" s="3">
+        <v>14944900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14981900</v>
+      </c>
+      <c r="K49" s="3">
         <v>16028400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>32284500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15767800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2083,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2118,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1520100</v>
+        <v>1216200</v>
       </c>
       <c r="E52" s="3">
-        <v>1456700</v>
+        <v>1751400</v>
       </c>
       <c r="F52" s="3">
-        <v>17912300</v>
+        <v>1453000</v>
       </c>
       <c r="G52" s="3">
-        <v>17552000</v>
+        <v>1392400</v>
       </c>
       <c r="H52" s="3">
-        <v>17993300</v>
+        <v>17121600</v>
       </c>
       <c r="I52" s="3">
+        <v>16777100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17199000</v>
+      </c>
+      <c r="K52" s="3">
         <v>17581300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17840700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>19511100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2188,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1052608200</v>
+        <v>1007061200</v>
       </c>
       <c r="E54" s="3">
-        <v>1040919400</v>
+        <v>1013102000</v>
       </c>
       <c r="F54" s="3">
-        <v>1057955000</v>
+        <v>1006138900</v>
       </c>
       <c r="G54" s="3">
-        <v>1047320200</v>
+        <v>994966100</v>
       </c>
       <c r="H54" s="3">
-        <v>1041391300</v>
+        <v>1011249600</v>
       </c>
       <c r="I54" s="3">
+        <v>1001084400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>995417200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1049906100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1037423800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1060168800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2242,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2257,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,8 +2288,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2323,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>883245100</v>
+        <v>840295300</v>
       </c>
       <c r="E59" s="3">
-        <v>858600900</v>
+        <v>838863700</v>
       </c>
       <c r="F59" s="3">
-        <v>863372500</v>
+        <v>844252600</v>
       </c>
       <c r="G59" s="3">
-        <v>845610400</v>
+        <v>820696400</v>
       </c>
       <c r="H59" s="3">
-        <v>851088500</v>
+        <v>825257300</v>
       </c>
       <c r="I59" s="3">
+        <v>808279400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>813515700</v>
+      </c>
+      <c r="K59" s="3">
         <v>845754800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>928346400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>834397000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2393,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42678600</v>
+        <v>41396900</v>
       </c>
       <c r="E61" s="3">
-        <v>41508300</v>
+        <v>41837900</v>
       </c>
       <c r="F61" s="3">
-        <v>41831100</v>
+        <v>40794400</v>
       </c>
       <c r="G61" s="3">
-        <v>40361500</v>
+        <v>39675800</v>
       </c>
       <c r="H61" s="3">
-        <v>40843900</v>
+        <v>39984400</v>
       </c>
       <c r="I61" s="3">
+        <v>38579600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>39040800</v>
+      </c>
+      <c r="K61" s="3">
         <v>40003400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>40124300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>56225500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18836100</v>
+        <v>14847300</v>
       </c>
       <c r="E62" s="3">
-        <v>5298600</v>
+        <v>4475600</v>
       </c>
       <c r="F62" s="3">
-        <v>32840900</v>
+        <v>18004600</v>
       </c>
       <c r="G62" s="3">
-        <v>21474900</v>
+        <v>5064700</v>
       </c>
       <c r="H62" s="3">
-        <v>31910000</v>
+        <v>31391000</v>
       </c>
       <c r="I62" s="3">
+        <v>20526800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>30501300</v>
+      </c>
+      <c r="K62" s="3">
         <v>20747100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>32131900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23594800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2498,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2533,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2568,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>981848600</v>
+        <v>938359500</v>
       </c>
       <c r="E66" s="3">
-        <v>966617300</v>
+        <v>945681600</v>
       </c>
       <c r="F66" s="3">
-        <v>981008200</v>
+        <v>938503100</v>
       </c>
       <c r="G66" s="3">
-        <v>970990900</v>
+        <v>923944200</v>
       </c>
       <c r="H66" s="3">
-        <v>966035100</v>
+        <v>937699800</v>
       </c>
       <c r="I66" s="3">
+        <v>928124700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>923387700</v>
+      </c>
+      <c r="K66" s="3">
         <v>970462700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>958681100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>978323700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2622,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2653,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2688,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2723,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2758,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62165000</v>
+        <v>62617100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="3">
-        <v>64644100</v>
+        <v>59420600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>63773100</v>
+        <v>61790200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3">
+        <v>60957700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>64854200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2828,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2863,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2898,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70759600</v>
+        <v>68701700</v>
       </c>
       <c r="E76" s="3">
-        <v>74302200</v>
+        <v>67420400</v>
       </c>
       <c r="F76" s="3">
-        <v>76946800</v>
+        <v>67635800</v>
       </c>
       <c r="G76" s="3">
-        <v>76329300</v>
+        <v>71022000</v>
       </c>
       <c r="H76" s="3">
-        <v>75356300</v>
+        <v>73549800</v>
       </c>
       <c r="I76" s="3">
+        <v>72959600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>72029500</v>
+      </c>
+      <c r="K76" s="3">
         <v>79443500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>78742700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>81845100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2968,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4495700</v>
+        <v>4075100</v>
       </c>
       <c r="E81" s="3">
-        <v>2276000</v>
+        <v>2172200</v>
       </c>
       <c r="F81" s="3">
-        <v>3513200</v>
+        <v>4297200</v>
       </c>
       <c r="G81" s="3">
-        <v>1838200</v>
+        <v>2175500</v>
       </c>
       <c r="H81" s="3">
-        <v>4472200</v>
+        <v>3358100</v>
       </c>
       <c r="I81" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4274800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2131600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4380700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2225500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3062,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>833400</v>
+        <v>982900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>969600</v>
+        <v>796600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>842800</v>
+        <v>926800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>805600</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>848700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3128,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3163,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3198,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3233,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3268,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18265700</v>
+        <v>11940200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>15930900</v>
+        <v>17459300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>23025500</v>
+        <v>15227600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>22009000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>6502900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3322,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-863900</v>
+        <v>-47100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-869800</v>
+        <v>-126800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-998900</v>
+        <v>-76300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3249100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3388,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3423,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10056000</v>
+        <v>-12053500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-15482600</v>
+        <v>-9612100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>-13575100</v>
+        <v>-14799000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-12975800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6895000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3477,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4237500</v>
+        <v>-70700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-57500</v>
+        <v>-4050400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4239800</v>
+        <v>-55000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-4052600</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-120900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3543,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3578,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3613,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7213100</v>
+        <v>-758500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>-100900</v>
+        <v>-6894600</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>-5799800</v>
+        <v>-96500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-5543800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>64600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>39300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>-387400</v>
+        <v>6700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>-491800</v>
+        <v>-370300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>-470100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>198400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1003600</v>
+        <v>-832500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>-39900</v>
+        <v>959300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>3158700</v>
+        <v>-38100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>3019300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-129100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
